--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Ptprb</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.3418561256448</v>
+        <v>17.21384166666667</v>
       </c>
       <c r="H2">
-        <v>11.3418561256448</v>
+        <v>51.641525</v>
       </c>
       <c r="I2">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266565</v>
       </c>
       <c r="J2">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266566</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>172.792055307549</v>
+        <v>177.977656</v>
       </c>
       <c r="N2">
-        <v>172.792055307549</v>
+        <v>533.932968</v>
       </c>
       <c r="O2">
-        <v>0.9967712887564819</v>
+        <v>0.9961032083749486</v>
       </c>
       <c r="P2">
-        <v>0.9967712887564819</v>
+        <v>0.9961032083749484</v>
       </c>
       <c r="Q2">
-        <v>1959.782630952679</v>
+        <v>3063.679190588467</v>
       </c>
       <c r="R2">
-        <v>1959.782630952679</v>
+        <v>27573.1127152962</v>
       </c>
       <c r="S2">
-        <v>0.03029330630041471</v>
+        <v>0.04491089253364289</v>
       </c>
       <c r="T2">
-        <v>0.03029330630041471</v>
+        <v>0.04491089253364289</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.3418561256448</v>
+        <v>17.21384166666667</v>
       </c>
       <c r="H3">
-        <v>11.3418561256448</v>
+        <v>51.641525</v>
       </c>
       <c r="I3">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266565</v>
       </c>
       <c r="J3">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266566</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.342281076772348</v>
+        <v>0.357538</v>
       </c>
       <c r="N3">
-        <v>0.342281076772348</v>
+        <v>1.072614</v>
       </c>
       <c r="O3">
-        <v>0.00197448863840457</v>
+        <v>0.002001064385947202</v>
       </c>
       <c r="P3">
-        <v>0.00197448863840457</v>
+        <v>0.002001064385947202</v>
       </c>
       <c r="Q3">
-        <v>3.882102727282753</v>
+        <v>6.154602521816666</v>
       </c>
       <c r="R3">
-        <v>3.882102727282753</v>
+        <v>55.39142269635</v>
       </c>
       <c r="S3">
-        <v>6.000753611643338E-05</v>
+        <v>9.022116065341152E-05</v>
       </c>
       <c r="T3">
-        <v>6.000753611643338E-05</v>
+        <v>9.022116065341152E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.3418561256448</v>
+        <v>17.21384166666667</v>
       </c>
       <c r="H4">
-        <v>11.3418561256448</v>
+        <v>51.641525</v>
       </c>
       <c r="I4">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266565</v>
       </c>
       <c r="J4">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266566</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0802400966860994</v>
+        <v>0.119059</v>
       </c>
       <c r="N4">
-        <v>0.0802400966860994</v>
+        <v>0.357177</v>
       </c>
       <c r="O4">
-        <v>0.0004628744327474515</v>
+        <v>0.0006663479818270728</v>
       </c>
       <c r="P4">
-        <v>0.0004628744327474515</v>
+        <v>0.0006663479818270726</v>
       </c>
       <c r="Q4">
-        <v>0.9100716321215674</v>
+        <v>2.049462774991667</v>
       </c>
       <c r="R4">
-        <v>0.9100716321215674</v>
+        <v>18.445164974925</v>
       </c>
       <c r="S4">
-        <v>1.406741659597995E-05</v>
+        <v>3.004335529715589E-05</v>
       </c>
       <c r="T4">
-        <v>1.406741659597995E-05</v>
+        <v>3.004335529715589E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.3418561256448</v>
+        <v>17.21384166666667</v>
       </c>
       <c r="H5">
-        <v>11.3418561256448</v>
+        <v>51.641525</v>
       </c>
       <c r="I5">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266565</v>
       </c>
       <c r="J5">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266566</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.137181596931404</v>
+        <v>0.04906366666666667</v>
       </c>
       <c r="N5">
-        <v>0.137181596931404</v>
+        <v>0.147191</v>
       </c>
       <c r="O5">
-        <v>0.000791348172365966</v>
+        <v>0.0002745989405619866</v>
       </c>
       <c r="P5">
-        <v>0.000791348172365966</v>
+        <v>0.0002745989405619865</v>
       </c>
       <c r="Q5">
-        <v>1.55589393548218</v>
+        <v>0.8445741895861112</v>
       </c>
       <c r="R5">
-        <v>1.55589393548218</v>
+        <v>7.601167706275001</v>
       </c>
       <c r="S5">
-        <v>2.405020373897652E-05</v>
+        <v>1.238072862906535E-05</v>
       </c>
       <c r="T5">
-        <v>2.405020373897652E-05</v>
+        <v>1.238072862906535E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>344.316357363886</v>
+        <v>17.21384166666667</v>
       </c>
       <c r="H6">
-        <v>344.316357363886</v>
+        <v>51.641525</v>
       </c>
       <c r="I6">
-        <v>0.9226238508388281</v>
+        <v>0.04508658556266565</v>
       </c>
       <c r="J6">
-        <v>0.9226238508388281</v>
+        <v>0.04508658556266566</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>172.792055307549</v>
+        <v>0.1705943333333333</v>
       </c>
       <c r="N6">
-        <v>172.792055307549</v>
+        <v>0.511783</v>
       </c>
       <c r="O6">
-        <v>0.9967712887564819</v>
+        <v>0.0009547803167152554</v>
       </c>
       <c r="P6">
-        <v>0.9967712887564819</v>
+        <v>0.0009547803167152552</v>
       </c>
       <c r="Q6">
-        <v>59495.1310649144</v>
+        <v>2.936583843230555</v>
       </c>
       <c r="R6">
-        <v>59495.1310649144</v>
+        <v>26.429254589075</v>
       </c>
       <c r="S6">
-        <v>0.9196449648380869</v>
+        <v>4.304778444313137E-05</v>
       </c>
       <c r="T6">
-        <v>0.9196449648380869</v>
+        <v>4.304778444313137E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>344.316357363886</v>
+        <v>346.747152</v>
       </c>
       <c r="H7">
-        <v>344.316357363886</v>
+        <v>1040.241456</v>
       </c>
       <c r="I7">
-        <v>0.9226238508388281</v>
+        <v>0.9082019830315988</v>
       </c>
       <c r="J7">
-        <v>0.9226238508388281</v>
+        <v>0.908201983031599</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.342281076772348</v>
+        <v>177.977656</v>
       </c>
       <c r="N7">
-        <v>0.342281076772348</v>
+        <v>533.932968</v>
       </c>
       <c r="O7">
-        <v>0.00197448863840457</v>
+        <v>0.9961032083749486</v>
       </c>
       <c r="P7">
-        <v>0.00197448863840457</v>
+        <v>0.9961032083749484</v>
       </c>
       <c r="Q7">
-        <v>117.8529735488435</v>
+        <v>61713.24533763571</v>
       </c>
       <c r="R7">
-        <v>117.8529735488435</v>
+        <v>555419.2080387214</v>
       </c>
       <c r="S7">
-        <v>0.001821710311002339</v>
+        <v>0.9046629091502663</v>
       </c>
       <c r="T7">
-        <v>0.001821710311002339</v>
+        <v>0.9046629091502663</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>344.316357363886</v>
+        <v>346.747152</v>
       </c>
       <c r="H8">
-        <v>344.316357363886</v>
+        <v>1040.241456</v>
       </c>
       <c r="I8">
-        <v>0.9226238508388281</v>
+        <v>0.9082019830315988</v>
       </c>
       <c r="J8">
-        <v>0.9226238508388281</v>
+        <v>0.908201983031599</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0802400966860994</v>
+        <v>0.357538</v>
       </c>
       <c r="N8">
-        <v>0.0802400966860994</v>
+        <v>1.072614</v>
       </c>
       <c r="O8">
-        <v>0.0004628744327474515</v>
+        <v>0.002001064385947202</v>
       </c>
       <c r="P8">
-        <v>0.0004628744327474515</v>
+        <v>0.002001064385947202</v>
       </c>
       <c r="Q8">
-        <v>27.62797780548377</v>
+        <v>123.975283231776</v>
       </c>
       <c r="R8">
-        <v>27.62797780548377</v>
+        <v>1115.777549085984</v>
       </c>
       <c r="S8">
-        <v>0.0004270589915962919</v>
+        <v>0.001817370643491158</v>
       </c>
       <c r="T8">
-        <v>0.0004270589915962919</v>
+        <v>0.001817370643491158</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>344.316357363886</v>
+        <v>346.747152</v>
       </c>
       <c r="H9">
-        <v>344.316357363886</v>
+        <v>1040.241456</v>
       </c>
       <c r="I9">
-        <v>0.9226238508388281</v>
+        <v>0.9082019830315988</v>
       </c>
       <c r="J9">
-        <v>0.9226238508388281</v>
+        <v>0.908201983031599</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.137181596931404</v>
+        <v>0.119059</v>
       </c>
       <c r="N9">
-        <v>0.137181596931404</v>
+        <v>0.357177</v>
       </c>
       <c r="O9">
-        <v>0.000791348172365966</v>
+        <v>0.0006663479818270728</v>
       </c>
       <c r="P9">
-        <v>0.000791348172365966</v>
+        <v>0.0006663479818270726</v>
       </c>
       <c r="Q9">
-        <v>47.23386775278187</v>
+        <v>41.283369169968</v>
       </c>
       <c r="R9">
-        <v>47.23386775278187</v>
+        <v>371.550322529712</v>
       </c>
       <c r="S9">
-        <v>0.0007301166981425563</v>
+        <v>0.0006051785584844513</v>
       </c>
       <c r="T9">
-        <v>0.0007301166981425563</v>
+        <v>0.0006051785584844513</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.5343471090724</v>
+        <v>346.747152</v>
       </c>
       <c r="H10">
-        <v>17.5343471090724</v>
+        <v>1040.241456</v>
       </c>
       <c r="I10">
-        <v>0.04698471770430578</v>
+        <v>0.9082019830315988</v>
       </c>
       <c r="J10">
-        <v>0.04698471770430578</v>
+        <v>0.908201983031599</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>172.792055307549</v>
+        <v>0.04906366666666667</v>
       </c>
       <c r="N10">
-        <v>172.792055307549</v>
+        <v>0.147191</v>
       </c>
       <c r="O10">
-        <v>0.9967712887564819</v>
+        <v>0.0002745989405619866</v>
       </c>
       <c r="P10">
-        <v>0.9967712887564819</v>
+        <v>0.0002745989405619865</v>
       </c>
       <c r="Q10">
-        <v>3029.7958754526</v>
+        <v>17.012686683344</v>
       </c>
       <c r="R10">
-        <v>3029.7958754526</v>
+        <v>153.114180150096</v>
       </c>
       <c r="S10">
-        <v>0.04683301761798036</v>
+        <v>0.0002493913023567723</v>
       </c>
       <c r="T10">
-        <v>0.04683301761798036</v>
+        <v>0.0002493913023567723</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.5343471090724</v>
+        <v>346.747152</v>
       </c>
       <c r="H11">
-        <v>17.5343471090724</v>
+        <v>1040.241456</v>
       </c>
       <c r="I11">
-        <v>0.04698471770430578</v>
+        <v>0.9082019830315988</v>
       </c>
       <c r="J11">
-        <v>0.04698471770430578</v>
+        <v>0.908201983031599</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.342281076772348</v>
+        <v>0.1705943333333333</v>
       </c>
       <c r="N11">
-        <v>0.342281076772348</v>
+        <v>0.511783</v>
       </c>
       <c r="O11">
-        <v>0.00197448863840457</v>
+        <v>0.0009547803167152554</v>
       </c>
       <c r="P11">
-        <v>0.00197448863840457</v>
+        <v>0.0009547803167152552</v>
       </c>
       <c r="Q11">
-        <v>6.001675208993408</v>
+        <v>59.15309923067199</v>
       </c>
       <c r="R11">
-        <v>6.001675208993408</v>
+        <v>532.3778930760479</v>
       </c>
       <c r="S11">
-        <v>9.277079128579783E-05</v>
+        <v>0.0008671333770003329</v>
       </c>
       <c r="T11">
-        <v>9.277079128579783E-05</v>
+        <v>0.0008671333770003329</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>17.5343471090724</v>
+        <v>0.042542</v>
       </c>
       <c r="H12">
-        <v>17.5343471090724</v>
+        <v>0.127626</v>
       </c>
       <c r="I12">
-        <v>0.04698471770430578</v>
+        <v>0.000111426232455776</v>
       </c>
       <c r="J12">
-        <v>0.04698471770430578</v>
+        <v>0.000111426232455776</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0802400966860994</v>
+        <v>177.977656</v>
       </c>
       <c r="N12">
-        <v>0.0802400966860994</v>
+        <v>533.932968</v>
       </c>
       <c r="O12">
-        <v>0.0004628744327474515</v>
+        <v>0.9961032083749486</v>
       </c>
       <c r="P12">
-        <v>0.0004628744327474515</v>
+        <v>0.9961032083749484</v>
       </c>
       <c r="Q12">
-        <v>1.406957707359597</v>
+        <v>7.571525441552001</v>
       </c>
       <c r="R12">
-        <v>1.406957707359597</v>
+        <v>68.14372897396801</v>
       </c>
       <c r="S12">
-        <v>2.174802455517968E-05</v>
+        <v>0.0001109920276463313</v>
       </c>
       <c r="T12">
-        <v>2.174802455517968E-05</v>
+        <v>0.0001109920276463313</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.042542</v>
+      </c>
+      <c r="H13">
+        <v>0.127626</v>
+      </c>
+      <c r="I13">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="J13">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.357538</v>
+      </c>
+      <c r="N13">
+        <v>1.072614</v>
+      </c>
+      <c r="O13">
+        <v>0.002001064385947202</v>
+      </c>
+      <c r="P13">
+        <v>0.002001064385947202</v>
+      </c>
+      <c r="Q13">
+        <v>0.015210381596</v>
+      </c>
+      <c r="R13">
+        <v>0.136893434364</v>
+      </c>
+      <c r="S13">
+        <v>2.229710654275275E-07</v>
+      </c>
+      <c r="T13">
+        <v>2.229710654275275E-07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.042542</v>
+      </c>
+      <c r="H14">
+        <v>0.127626</v>
+      </c>
+      <c r="I14">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="J14">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.119059</v>
+      </c>
+      <c r="N14">
+        <v>0.357177</v>
+      </c>
+      <c r="O14">
+        <v>0.0006663479818270728</v>
+      </c>
+      <c r="P14">
+        <v>0.0006663479818270726</v>
+      </c>
+      <c r="Q14">
+        <v>0.005065007978000001</v>
+      </c>
+      <c r="R14">
+        <v>0.04558507180200001</v>
+      </c>
+      <c r="S14">
+        <v>7.42486451195006E-08</v>
+      </c>
+      <c r="T14">
+        <v>7.424864511950059E-08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.042542</v>
+      </c>
+      <c r="H15">
+        <v>0.127626</v>
+      </c>
+      <c r="I15">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="J15">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.04906366666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.147191</v>
+      </c>
+      <c r="O15">
+        <v>0.0002745989405619866</v>
+      </c>
+      <c r="P15">
+        <v>0.0002745989405619865</v>
+      </c>
+      <c r="Q15">
+        <v>0.002087266507333334</v>
+      </c>
+      <c r="R15">
+        <v>0.01878539856600001</v>
+      </c>
+      <c r="S15">
+        <v>3.059752538316972E-08</v>
+      </c>
+      <c r="T15">
+        <v>3.059752538316972E-08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.042542</v>
+      </c>
+      <c r="H16">
+        <v>0.127626</v>
+      </c>
+      <c r="I16">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="J16">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1705943333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.511783</v>
+      </c>
+      <c r="O16">
+        <v>0.0009547803167152554</v>
+      </c>
+      <c r="P16">
+        <v>0.0009547803167152552</v>
+      </c>
+      <c r="Q16">
+        <v>0.007257424128666667</v>
+      </c>
+      <c r="R16">
+        <v>0.065316817158</v>
+      </c>
+      <c r="S16">
+        <v>1.063875735145134E-07</v>
+      </c>
+      <c r="T16">
+        <v>1.063875735145134E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06491533333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.194746</v>
+      </c>
+      <c r="I17">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="J17">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>177.977656</v>
+      </c>
+      <c r="N17">
+        <v>533.932968</v>
+      </c>
+      <c r="O17">
+        <v>0.9961032083749486</v>
+      </c>
+      <c r="P17">
+        <v>0.9961032083749484</v>
+      </c>
+      <c r="Q17">
+        <v>11.55347886512533</v>
+      </c>
+      <c r="R17">
+        <v>103.981309786128</v>
+      </c>
+      <c r="S17">
+        <v>0.000169364027831417</v>
+      </c>
+      <c r="T17">
+        <v>0.000169364027831417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06491533333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.194746</v>
+      </c>
+      <c r="I18">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="J18">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.357538</v>
+      </c>
+      <c r="N18">
+        <v>1.072614</v>
+      </c>
+      <c r="O18">
+        <v>0.002001064385947202</v>
+      </c>
+      <c r="P18">
+        <v>0.002001064385947202</v>
+      </c>
+      <c r="Q18">
+        <v>0.02320969844933333</v>
+      </c>
+      <c r="R18">
+        <v>0.208887286044</v>
+      </c>
+      <c r="S18">
+        <v>3.402341459244141E-07</v>
+      </c>
+      <c r="T18">
+        <v>3.402341459244141E-07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>17.5343471090724</v>
-      </c>
-      <c r="H13">
-        <v>17.5343471090724</v>
-      </c>
-      <c r="I13">
-        <v>0.04698471770430578</v>
-      </c>
-      <c r="J13">
-        <v>0.04698471770430578</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.137181596931404</v>
-      </c>
-      <c r="N13">
-        <v>0.137181596931404</v>
-      </c>
-      <c r="O13">
-        <v>0.000791348172365966</v>
-      </c>
-      <c r="P13">
-        <v>0.000791348172365966</v>
-      </c>
-      <c r="Q13">
-        <v>2.405389737572099</v>
-      </c>
-      <c r="R13">
-        <v>2.405389737572099</v>
-      </c>
-      <c r="S13">
-        <v>3.718127048443322E-05</v>
-      </c>
-      <c r="T13">
-        <v>3.718127048443322E-05</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06491533333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.194746</v>
+      </c>
+      <c r="I19">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="J19">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.119059</v>
+      </c>
+      <c r="N19">
+        <v>0.357177</v>
+      </c>
+      <c r="O19">
+        <v>0.0006663479818270728</v>
+      </c>
+      <c r="P19">
+        <v>0.0006663479818270726</v>
+      </c>
+      <c r="Q19">
+        <v>0.007728754671333334</v>
+      </c>
+      <c r="R19">
+        <v>0.06955879204200001</v>
+      </c>
+      <c r="S19">
+        <v>1.132968724432503E-07</v>
+      </c>
+      <c r="T19">
+        <v>1.132968724432503E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06491533333333334</v>
+      </c>
+      <c r="H20">
+        <v>0.194746</v>
+      </c>
+      <c r="I20">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="J20">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.04906366666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.147191</v>
+      </c>
+      <c r="O20">
+        <v>0.0002745989405619866</v>
+      </c>
+      <c r="P20">
+        <v>0.0002745989405619865</v>
+      </c>
+      <c r="Q20">
+        <v>0.003184984276222223</v>
+      </c>
+      <c r="R20">
+        <v>0.028664858486</v>
+      </c>
+      <c r="S20">
+        <v>4.668912038511566E-08</v>
+      </c>
+      <c r="T20">
+        <v>4.668912038511565E-08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06491533333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.194746</v>
+      </c>
+      <c r="I21">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="J21">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1705943333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.511783</v>
+      </c>
+      <c r="O21">
+        <v>0.0009547803167152554</v>
+      </c>
+      <c r="P21">
+        <v>0.0009547803167152552</v>
+      </c>
+      <c r="Q21">
+        <v>0.01107418801311111</v>
+      </c>
+      <c r="R21">
+        <v>0.099667692118</v>
+      </c>
+      <c r="S21">
+        <v>1.623380376385489E-07</v>
+      </c>
+      <c r="T21">
+        <v>1.623380376385488E-07</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>17.72674266666667</v>
+      </c>
+      <c r="H22">
+        <v>53.180228</v>
+      </c>
+      <c r="I22">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="J22">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>177.977656</v>
+      </c>
+      <c r="N22">
+        <v>533.932968</v>
+      </c>
+      <c r="O22">
+        <v>0.9961032083749486</v>
+      </c>
+      <c r="P22">
+        <v>0.9961032083749484</v>
+      </c>
+      <c r="Q22">
+        <v>3154.964108328523</v>
+      </c>
+      <c r="R22">
+        <v>28394.6769749567</v>
+      </c>
+      <c r="S22">
+        <v>0.04624905063556172</v>
+      </c>
+      <c r="T22">
+        <v>0.04624905063556171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>17.72674266666667</v>
+      </c>
+      <c r="H23">
+        <v>53.180228</v>
+      </c>
+      <c r="I23">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="J23">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.357538</v>
+      </c>
+      <c r="N23">
+        <v>1.072614</v>
+      </c>
+      <c r="O23">
+        <v>0.002001064385947202</v>
+      </c>
+      <c r="P23">
+        <v>0.002001064385947202</v>
+      </c>
+      <c r="Q23">
+        <v>6.337984119554666</v>
+      </c>
+      <c r="R23">
+        <v>57.041857075992</v>
+      </c>
+      <c r="S23">
+        <v>9.290937659128101E-05</v>
+      </c>
+      <c r="T23">
+        <v>9.2909376591281E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>17.72674266666667</v>
+      </c>
+      <c r="H24">
+        <v>53.180228</v>
+      </c>
+      <c r="I24">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="J24">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.119059</v>
+      </c>
+      <c r="N24">
+        <v>0.357177</v>
+      </c>
+      <c r="O24">
+        <v>0.0006663479818270728</v>
+      </c>
+      <c r="P24">
+        <v>0.0006663479818270726</v>
+      </c>
+      <c r="Q24">
+        <v>2.110528255150667</v>
+      </c>
+      <c r="R24">
+        <v>18.994754296356</v>
+      </c>
+      <c r="S24">
+        <v>3.093852252790284E-05</v>
+      </c>
+      <c r="T24">
+        <v>3.093852252790284E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>17.72674266666667</v>
+      </c>
+      <c r="H25">
+        <v>53.180228</v>
+      </c>
+      <c r="I25">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="J25">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.04906366666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.147191</v>
+      </c>
+      <c r="O25">
+        <v>0.0002745989405619866</v>
+      </c>
+      <c r="P25">
+        <v>0.0002745989405619865</v>
+      </c>
+      <c r="Q25">
+        <v>0.8697389932831112</v>
+      </c>
+      <c r="R25">
+        <v>7.827650939548001</v>
+      </c>
+      <c r="S25">
+        <v>1.274962293038059E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.274962293038059E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>17.72674266666667</v>
+      </c>
+      <c r="H26">
+        <v>53.180228</v>
+      </c>
+      <c r="I26">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="J26">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1705943333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.511783</v>
+      </c>
+      <c r="O26">
+        <v>0.0009547803167152554</v>
+      </c>
+      <c r="P26">
+        <v>0.0009547803167152552</v>
+      </c>
+      <c r="Q26">
+        <v>3.024081847391555</v>
+      </c>
+      <c r="R26">
+        <v>27.216736626524</v>
+      </c>
+      <c r="S26">
+        <v>4.433042966063801E-05</v>
+      </c>
+      <c r="T26">
+        <v>4.4330429660638E-05</v>
       </c>
     </row>
   </sheetData>
